--- a/biology/Zoologie/Hyalinobatrachium_valerioi/Hyalinobatrachium_valerioi.xlsx
+++ b/biology/Zoologie/Hyalinobatrachium_valerioi/Hyalinobatrachium_valerioi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyalinobatrachium valerioi est une espèce d'amphibiens de la famille des Centrolenidae[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyalinobatrachium valerioi est une espèce d'amphibiens de la famille des Centrolenidae,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre jusqu'à 400 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre jusqu'à 400 m d'altitude :
 au Costa Rica ;
 au Panamá ;
 dans l'ouest de la Colombie ;
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 19,5 à 24,0 mm et les femelles de 22,5 à 26 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 19,5 à 24,0 mm et les femelles de 22,5 à 26 mm.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle assure la protection de la couvée[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle assure la protection de la couvée.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Manuel Valerio[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Manuel Valerio.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dunn, 1931 : New frogs from Panama and Costa Rica. Occasional Papers of the Boston Society of Natural History, vol. 5, p. 385–401 (texte intégral).</t>
         </is>
